--- a/budget/budget.xlsx
+++ b/budget/budget.xlsx
@@ -1,28 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAD7EE8-C3EB-48CA-A685-5097B1940AF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF623D69-3372-4EFF-968B-8EA8EE7AAE68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+  <si>
+    <t>Budget Estimation for a Week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Project Value </t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Hours/Week</t>
+  </si>
+  <si>
+    <t>Billing Rate</t>
+  </si>
+  <si>
+    <t>Calculated Totals</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Total Cost for a week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cost </t>
+  </si>
+  <si>
+    <t>TOTAL PROJECT VALUE =</t>
+  </si>
+  <si>
+    <t>EXPECTED PROFITS =</t>
+  </si>
+  <si>
+    <t>Designer/Testing</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Systems</t>
+  </si>
+  <si>
+    <t>Servers</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total for Equipment =</t>
+  </si>
+  <si>
+    <t>TOTAL EQUIPMENT COST =</t>
+  </si>
+  <si>
+    <t>TOTAL PROJECT AMOUNT =</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -38,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,14 +147,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -332,14 +472,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="G1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2">
+        <f>B4*C4</f>
+        <v>160</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2">
+        <v>80</v>
+      </c>
+      <c r="J4" s="2">
+        <f>H4*I4</f>
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D7" si="0">B5*C5</f>
+        <v>700</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>140</v>
+      </c>
+      <c r="I5" s="2">
+        <v>70</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ref="J5:J7" si="1">H5*I5</f>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1">
+        <f>30*14</f>
+        <v>420</v>
+      </c>
+      <c r="I6" s="2">
+        <v>60</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>990</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
+        <f>18*14</f>
+        <v>252</v>
+      </c>
+      <c r="I7" s="2">
+        <v>55</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>13860</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="11">
+        <f>D4+D5+D6+D7</f>
+        <v>3050</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="11">
+        <f>J4+J5+J6+J7</f>
+        <v>51100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3">
+        <v>70000</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4500</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="G16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="4">
+        <f>C20</f>
+        <v>5799</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
+      <c r="G17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2">
+        <f>J9</f>
+        <v>51100</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3">
+        <v>99</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="6"/>
+      <c r="G18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4">
+        <f>H15-H17-H16</f>
+        <v>13101</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="14">
+        <f>C16+C17+C18</f>
+        <v>5799</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/budget/budget.xlsx
+++ b/budget/budget.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF623D69-3372-4EFF-968B-8EA8EE7AAE68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1468813-4710-436B-B324-330EC3D76CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,6 +207,919 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$G$15:$G$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$G$16:$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL EQUIPMENT COST =</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TOTAL PROJECT VALUE =</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EXPECTED PROFITS =</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$H$15:$H$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$H$16:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5799</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>51100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions/>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55F7-4B5F-9514-B55ACC981535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD907A8-5B1C-4E7F-8D86-946013419E1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,24 +1387,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -505,7 +1418,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -531,7 +1444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -541,7 +1454,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -569,7 +1482,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -597,7 +1510,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -626,7 +1539,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -655,7 +1568,7 @@
         <v>13860</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -665,7 +1578,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -685,7 +1598,7 @@
         <v>51100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -693,7 +1606,7 @@
       <c r="F14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
@@ -710,7 +1623,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
@@ -728,7 +1641,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
@@ -746,7 +1659,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -764,7 +1677,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
@@ -773,7 +1686,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
@@ -788,12 +1701,13 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>